--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR13_경부선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR13_경부선.xlsx
@@ -57,9 +57,6 @@
     <t>LSTM</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
     <t>NBEATSx</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>MLP</t>
+  </si>
+  <si>
+    <t>NHITS</t>
   </si>
   <si>
     <t>unique_id</t>
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1265192777126.87</v>
+        <v>1265201796494.625</v>
       </c>
       <c r="C7">
-        <v>1124807.884541565</v>
+        <v>1124811.893826975</v>
       </c>
       <c r="D7">
-        <v>0.03119714180037038</v>
+        <v>0.03119782085345944</v>
       </c>
       <c r="E7">
-        <v>555389.4791666666</v>
+        <v>555399.5833333334</v>
       </c>
       <c r="F7">
-        <v>0.1146372113805792</v>
+        <v>0.1146400255929119</v>
       </c>
       <c r="G7">
         <v>255664.25</v>
       </c>
       <c r="H7">
-        <v>0.07476587095988568</v>
+        <v>0.07476587457303631</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1265201796494.625</v>
+        <v>1112345225671.479</v>
       </c>
       <c r="C8">
-        <v>1124811.893826975</v>
+        <v>1054677.78286616</v>
       </c>
       <c r="D8">
-        <v>0.03119782085345944</v>
+        <v>0.0291291815568484</v>
       </c>
       <c r="E8">
-        <v>555399.5833333334</v>
+        <v>538433.9583333334</v>
       </c>
       <c r="F8">
-        <v>0.1146400255929119</v>
+        <v>0.1143349740133767</v>
       </c>
       <c r="G8">
-        <v>255664.25</v>
+        <v>279583.75</v>
       </c>
       <c r="H8">
-        <v>0.07476587457303631</v>
+        <v>0.08078225945697148</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1112345225671.479</v>
+        <v>1277433321834.923</v>
       </c>
       <c r="C9">
-        <v>1054677.78286616</v>
+        <v>1130235.958477221</v>
       </c>
       <c r="D9">
-        <v>0.0291291815568484</v>
+        <v>0.03323165370685949</v>
       </c>
       <c r="E9">
-        <v>538433.9583333334</v>
+        <v>595641.4547499317</v>
       </c>
       <c r="F9">
-        <v>0.1143349740133767</v>
+        <v>0.1268900147830463</v>
       </c>
       <c r="G9">
-        <v>279583.75</v>
+        <v>316222.0204516479</v>
       </c>
       <c r="H9">
-        <v>0.08078225945697148</v>
+        <v>0.09543147741516257</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1277433321834.923</v>
+        <v>1384316031650.059</v>
       </c>
       <c r="C10">
-        <v>1130235.958477221</v>
+        <v>1176569.603402221</v>
       </c>
       <c r="D10">
-        <v>0.03323165370685949</v>
+        <v>0.03586651399029627</v>
       </c>
       <c r="E10">
-        <v>595641.4547499317</v>
+        <v>622691.2118016741</v>
       </c>
       <c r="F10">
-        <v>0.1268900147830463</v>
+        <v>0.134033137390961</v>
       </c>
       <c r="G10">
-        <v>316222.0204516479</v>
+        <v>324730.0743766392</v>
       </c>
       <c r="H10">
-        <v>0.09543147741516257</v>
+        <v>0.09260302411843771</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>1384316031650.059</v>
+        <v>1377403451415.727</v>
       </c>
       <c r="C11">
-        <v>1176569.603402221</v>
+        <v>1173628.327630058</v>
       </c>
       <c r="D11">
-        <v>0.03586651399029627</v>
+        <v>0.03553117993510651</v>
       </c>
       <c r="E11">
-        <v>622691.2118016741</v>
+        <v>626222.808807028</v>
       </c>
       <c r="F11">
-        <v>0.134033137390961</v>
+        <v>0.1348094444047331</v>
       </c>
       <c r="G11">
-        <v>324730.0743766392</v>
+        <v>337036.8149114356</v>
       </c>
       <c r="H11">
-        <v>0.09260302411843771</v>
+        <v>0.09534596934686665</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>1377403451415.727</v>
+        <v>1427375410550.422</v>
       </c>
       <c r="C12">
-        <v>1173628.327630058</v>
+        <v>1194728.174335243</v>
       </c>
       <c r="D12">
-        <v>0.03553117993510651</v>
+        <v>0.03890112030115322</v>
       </c>
       <c r="E12">
-        <v>626222.808807028</v>
+        <v>662948.6458333334</v>
       </c>
       <c r="F12">
-        <v>0.1348094444047331</v>
+        <v>0.1457458018099658</v>
       </c>
       <c r="G12">
-        <v>337036.8149114356</v>
+        <v>380843.125</v>
       </c>
       <c r="H12">
-        <v>0.09534596934686665</v>
+        <v>0.1099636311689207</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1427375410550.422</v>
+        <v>1724767841591.328</v>
       </c>
       <c r="C13">
-        <v>1194728.174335243</v>
+        <v>1313304.169486768</v>
       </c>
       <c r="D13">
-        <v>0.03890112030115322</v>
+        <v>0.06501083034433069</v>
       </c>
       <c r="E13">
-        <v>662948.6458333334</v>
+        <v>844594.0625</v>
       </c>
       <c r="F13">
-        <v>0.1457458018099658</v>
+        <v>0.1991053082801593</v>
       </c>
       <c r="G13">
-        <v>380843.125</v>
+        <v>759860.25</v>
       </c>
       <c r="H13">
-        <v>0.1099636311689207</v>
+        <v>0.2164610034662228</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>1724767841591.328</v>
+        <v>437734330989481.5</v>
       </c>
       <c r="C14">
-        <v>1313304.169486768</v>
+        <v>20922101.49553533</v>
       </c>
       <c r="D14">
-        <v>0.06501083034433069</v>
+        <v>37.2888770313536</v>
       </c>
       <c r="E14">
-        <v>844594.0625</v>
+        <v>17995916.5</v>
       </c>
       <c r="F14">
-        <v>0.1991053082801593</v>
+        <v>5.222978855304901</v>
       </c>
       <c r="G14">
-        <v>759860.25</v>
+        <v>17303556.5</v>
       </c>
       <c r="H14">
-        <v>0.2164610034662228</v>
+        <v>5.227807142538117</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>437734330989481.5</v>
+        <v>7263457487075107</v>
       </c>
       <c r="C15">
-        <v>20922101.49553533</v>
+        <v>85225920.27707948</v>
       </c>
       <c r="D15">
-        <v>37.2888770313536</v>
+        <v>601.8404687903594</v>
       </c>
       <c r="E15">
-        <v>17995916.5</v>
+        <v>72753837.72916667</v>
       </c>
       <c r="F15">
-        <v>5.222978855304901</v>
+        <v>20.9885851137409</v>
       </c>
       <c r="G15">
-        <v>17303556.5</v>
+        <v>100752447.5</v>
       </c>
       <c r="H15">
-        <v>5.227807142538117</v>
+        <v>29.1266570559346</v>
       </c>
     </row>
   </sheetData>
@@ -939,31 +939,31 @@
         <v>3481501</v>
       </c>
       <c r="I2">
-        <v>3152503.5</v>
+        <v>3152503.25</v>
       </c>
       <c r="J2">
-        <v>3152503.25</v>
+        <v>3261566.75</v>
       </c>
       <c r="K2">
-        <v>3261566.75</v>
+        <v>3045828.441343881</v>
       </c>
       <c r="L2">
-        <v>3045828.441343881</v>
+        <v>3038521.340885951</v>
       </c>
       <c r="M2">
-        <v>3038521.340885951</v>
+        <v>3034036.207563492</v>
       </c>
       <c r="N2">
-        <v>3034036.207563492</v>
+        <v>3036068</v>
       </c>
       <c r="O2">
-        <v>3036068</v>
+        <v>3284764.75</v>
       </c>
       <c r="P2">
-        <v>3284764.75</v>
+        <v>20735746</v>
       </c>
       <c r="Q2">
-        <v>20735746</v>
+        <v>3855968.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -992,31 +992,31 @@
         <v>3343712.25</v>
       </c>
       <c r="I3">
-        <v>3152502.5</v>
+        <v>3152502</v>
       </c>
       <c r="J3">
-        <v>3152502</v>
+        <v>3421346.25</v>
       </c>
       <c r="K3">
-        <v>3421346.25</v>
+        <v>3175931.173398636</v>
       </c>
       <c r="L3">
-        <v>3175931.173398636</v>
+        <v>3006871.679563061</v>
       </c>
       <c r="M3">
-        <v>3006871.679563061</v>
+        <v>3016364.499666666</v>
       </c>
       <c r="N3">
-        <v>3016364.499666666</v>
+        <v>2988830.5</v>
       </c>
       <c r="O3">
-        <v>2988830.5</v>
+        <v>3009060.75</v>
       </c>
       <c r="P3">
-        <v>3009060.75</v>
+        <v>11040195</v>
       </c>
       <c r="Q3">
-        <v>11040195</v>
+        <v>3855968.75</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1048,28 +1048,28 @@
         <v>3152500.25</v>
       </c>
       <c r="J4">
-        <v>3152500.25</v>
+        <v>2896296.75</v>
       </c>
       <c r="K4">
-        <v>2896296.75</v>
+        <v>2964375.27690461</v>
       </c>
       <c r="L4">
-        <v>2964375.27690461</v>
+        <v>2843418.233498034</v>
       </c>
       <c r="M4">
-        <v>2843418.233498034</v>
+        <v>2826964.281904762</v>
       </c>
       <c r="N4">
-        <v>2826964.281904762</v>
+        <v>2723026.75</v>
       </c>
       <c r="O4">
-        <v>2723026.75</v>
+        <v>2984163.75</v>
       </c>
       <c r="P4">
-        <v>2984163.75</v>
+        <v>20427100</v>
       </c>
       <c r="Q4">
-        <v>20427100</v>
+        <v>15538996</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1098,31 +1098,31 @@
         <v>3025482.75</v>
       </c>
       <c r="I5">
-        <v>3152500.5</v>
+        <v>3152502.5</v>
       </c>
       <c r="J5">
-        <v>3152502.5</v>
+        <v>3138413.25</v>
       </c>
       <c r="K5">
-        <v>3138413.25</v>
+        <v>3298366.961602651</v>
       </c>
       <c r="L5">
-        <v>3298366.961602651</v>
+        <v>2803389.985544699</v>
       </c>
       <c r="M5">
-        <v>2803389.985544699</v>
+        <v>2899719.079556638</v>
       </c>
       <c r="N5">
-        <v>2899719.079556638</v>
+        <v>2710981</v>
       </c>
       <c r="O5">
-        <v>2710981</v>
+        <v>2959548.25</v>
       </c>
       <c r="P5">
-        <v>2959548.25</v>
+        <v>-11633962</v>
       </c>
       <c r="Q5">
-        <v>-11633962</v>
+        <v>42243048</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1151,31 +1151,31 @@
         <v>3128388.75</v>
       </c>
       <c r="I6">
-        <v>3152503.75</v>
+        <v>3152503</v>
       </c>
       <c r="J6">
-        <v>3152503</v>
+        <v>2944453.75</v>
       </c>
       <c r="K6">
-        <v>2944453.75</v>
+        <v>3029765.682192095</v>
       </c>
       <c r="L6">
-        <v>3029765.682192095</v>
+        <v>3121161.024127041</v>
       </c>
       <c r="M6">
-        <v>3121161.024127041</v>
+        <v>3107651.991000002</v>
       </c>
       <c r="N6">
-        <v>3107651.991000002</v>
+        <v>3126357.25</v>
       </c>
       <c r="O6">
-        <v>3126357.25</v>
+        <v>2689189.5</v>
       </c>
       <c r="P6">
-        <v>2689189.5</v>
+        <v>7336411</v>
       </c>
       <c r="Q6">
-        <v>7336411</v>
+        <v>68947104</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1204,31 +1204,31 @@
         <v>3258934.75</v>
       </c>
       <c r="I7">
-        <v>3152516.5</v>
+        <v>3152508.5</v>
       </c>
       <c r="J7">
-        <v>3152508.5</v>
+        <v>3140186</v>
       </c>
       <c r="K7">
-        <v>3140186</v>
+        <v>3196109.75152237</v>
       </c>
       <c r="L7">
-        <v>3196109.75152237</v>
+        <v>2920011.577840093</v>
       </c>
       <c r="M7">
-        <v>2920011.577840093</v>
+        <v>3020569.772952382</v>
       </c>
       <c r="N7">
-        <v>3020569.772952382</v>
+        <v>2891302</v>
       </c>
       <c r="O7">
-        <v>2891302</v>
+        <v>2378297.5</v>
       </c>
       <c r="P7">
-        <v>2378297.5</v>
+        <v>28087778</v>
       </c>
       <c r="Q7">
-        <v>28087778</v>
+        <v>95651152</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1257,31 +1257,31 @@
         <v>3319504.25</v>
       </c>
       <c r="I8">
-        <v>3152546</v>
+        <v>3152508.5</v>
       </c>
       <c r="J8">
-        <v>3152508.5</v>
+        <v>3477792</v>
       </c>
       <c r="K8">
-        <v>3477792</v>
+        <v>3174340.915427745</v>
       </c>
       <c r="L8">
-        <v>3174340.915427745</v>
+        <v>3402293.723536174</v>
       </c>
       <c r="M8">
-        <v>3402293.723536174</v>
+        <v>3281773.321583335</v>
       </c>
       <c r="N8">
-        <v>3281773.321583335</v>
+        <v>3399107</v>
       </c>
       <c r="O8">
-        <v>3399107</v>
+        <v>2786731</v>
       </c>
       <c r="P8">
-        <v>2786731</v>
+        <v>-4305740</v>
       </c>
       <c r="Q8">
-        <v>-4305740</v>
+        <v>113977200</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1310,31 +1310,31 @@
         <v>3473312</v>
       </c>
       <c r="I9">
-        <v>3152559.25</v>
+        <v>3152504</v>
       </c>
       <c r="J9">
-        <v>3152504</v>
+        <v>3416129</v>
       </c>
       <c r="K9">
-        <v>3416129</v>
+        <v>3107160.520950276</v>
       </c>
       <c r="L9">
-        <v>3107160.520950276</v>
+        <v>3251232.711214602</v>
       </c>
       <c r="M9">
-        <v>3251232.711214602</v>
+        <v>3222848.978432539</v>
       </c>
       <c r="N9">
-        <v>3222848.978432539</v>
+        <v>3251039.5</v>
       </c>
       <c r="O9">
-        <v>3251039.5</v>
+        <v>3507192.5</v>
       </c>
       <c r="P9">
-        <v>3507192.5</v>
+        <v>36957760</v>
       </c>
       <c r="Q9">
-        <v>36957760</v>
+        <v>113871616</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1363,31 +1363,31 @@
         <v>3367669.5</v>
       </c>
       <c r="I10">
-        <v>3152528.25</v>
+        <v>3152505.25</v>
       </c>
       <c r="J10">
-        <v>3152505.25</v>
+        <v>3392587.75</v>
       </c>
       <c r="K10">
-        <v>3392587.75</v>
+        <v>3089986.50194906</v>
       </c>
       <c r="L10">
-        <v>3089986.50194906</v>
+        <v>3119984.14003212</v>
       </c>
       <c r="M10">
-        <v>3119984.14003212</v>
+        <v>3123754.39174459</v>
       </c>
       <c r="N10">
-        <v>3123754.39174459</v>
+        <v>3111612.75</v>
       </c>
       <c r="O10">
-        <v>3111612.75</v>
+        <v>3704303.5</v>
       </c>
       <c r="P10">
-        <v>3704303.5</v>
+        <v>22677224</v>
       </c>
       <c r="Q10">
-        <v>22677224</v>
+        <v>113766048</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1416,31 +1416,31 @@
         <v>3009929</v>
       </c>
       <c r="I11">
-        <v>3152504.25</v>
+        <v>3152505.75</v>
       </c>
       <c r="J11">
-        <v>3152505.75</v>
+        <v>3014461.75</v>
       </c>
       <c r="K11">
-        <v>3014461.75</v>
+        <v>3029765.682192095</v>
       </c>
       <c r="L11">
-        <v>3029765.682192095</v>
+        <v>3121161.024127041</v>
       </c>
       <c r="M11">
-        <v>3121161.024127041</v>
+        <v>3107651.991000002</v>
       </c>
       <c r="N11">
-        <v>3107651.991000002</v>
+        <v>3126357.25</v>
       </c>
       <c r="O11">
-        <v>3126357.25</v>
+        <v>2415989.25</v>
       </c>
       <c r="P11">
-        <v>2415989.25</v>
+        <v>-22577924</v>
       </c>
       <c r="Q11">
-        <v>-22577924</v>
+        <v>113660488</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1469,31 +1469,31 @@
         <v>3135444.5</v>
       </c>
       <c r="I12">
-        <v>3152502.75</v>
+        <v>3152503.5</v>
       </c>
       <c r="J12">
-        <v>3152503.5</v>
+        <v>3092085.75</v>
       </c>
       <c r="K12">
-        <v>3092085.75</v>
+        <v>3182730.056773642</v>
       </c>
       <c r="L12">
-        <v>3182730.056773642</v>
+        <v>3274522.877978979</v>
       </c>
       <c r="M12">
-        <v>3274522.877978979</v>
+        <v>3215084.387166667</v>
       </c>
       <c r="N12">
-        <v>3215084.387166667</v>
+        <v>3063168.5</v>
       </c>
       <c r="O12">
-        <v>3063168.5</v>
+        <v>2317435.75</v>
       </c>
       <c r="P12">
-        <v>2317435.75</v>
+        <v>42178848</v>
       </c>
       <c r="Q12">
-        <v>42178848</v>
+        <v>113423704</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1522,31 +1522,31 @@
         <v>2899709.75</v>
       </c>
       <c r="I13">
-        <v>3152505.75</v>
+        <v>3152505.5</v>
       </c>
       <c r="J13">
-        <v>3152505.5</v>
+        <v>2838320.5</v>
       </c>
       <c r="K13">
-        <v>2838320.5</v>
+        <v>3089986.50194906</v>
       </c>
       <c r="L13">
-        <v>3089986.50194906</v>
+        <v>3119984.14003212</v>
       </c>
       <c r="M13">
-        <v>3119984.14003212</v>
+        <v>3123754.39174459</v>
       </c>
       <c r="N13">
-        <v>3123754.39174459</v>
+        <v>3111612.75</v>
       </c>
       <c r="O13">
-        <v>3111612.75</v>
+        <v>2443338.25</v>
       </c>
       <c r="P13">
-        <v>2443338.25</v>
+        <v>12003449</v>
       </c>
       <c r="Q13">
-        <v>12003449</v>
+        <v>112618344</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1575,31 +1575,31 @@
         <v>3014639.5</v>
       </c>
       <c r="I14">
-        <v>3152540.5</v>
+        <v>3152504.75</v>
       </c>
       <c r="J14">
-        <v>3152504.75</v>
+        <v>3048552.5</v>
       </c>
       <c r="K14">
-        <v>3048552.5</v>
+        <v>2992599.116845962</v>
       </c>
       <c r="L14">
-        <v>2992599.116845962</v>
+        <v>2995768.860906325</v>
       </c>
       <c r="M14">
-        <v>2995768.860906325</v>
+        <v>2962004.748690475</v>
       </c>
       <c r="N14">
-        <v>2962004.748690475</v>
+        <v>2994144.5</v>
       </c>
       <c r="O14">
-        <v>2994144.5</v>
+        <v>2641866.5</v>
       </c>
       <c r="P14">
-        <v>2641866.5</v>
+        <v>51113040</v>
       </c>
       <c r="Q14">
-        <v>51113040</v>
+        <v>111813000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1628,31 +1628,31 @@
         <v>3201052</v>
       </c>
       <c r="I15">
-        <v>3152571.75</v>
+        <v>3152506</v>
       </c>
       <c r="J15">
-        <v>3152506</v>
+        <v>3287177.75</v>
       </c>
       <c r="K15">
-        <v>3287177.75</v>
+        <v>3174340.915427745</v>
       </c>
       <c r="L15">
-        <v>3174340.915427745</v>
+        <v>3319000.977915027</v>
       </c>
       <c r="M15">
-        <v>3319000.977915027</v>
+        <v>3150543.246809524</v>
       </c>
       <c r="N15">
-        <v>3150543.246809524</v>
+        <v>3048502.5</v>
       </c>
       <c r="O15">
-        <v>3048502.5</v>
+        <v>2128025</v>
       </c>
       <c r="P15">
-        <v>2128025</v>
+        <v>4005618.75</v>
       </c>
       <c r="Q15">
-        <v>4005618.75</v>
+        <v>111007656</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1681,31 +1681,31 @@
         <v>3069817.5</v>
       </c>
       <c r="I16">
-        <v>3152569.75</v>
+        <v>3152505.25</v>
       </c>
       <c r="J16">
-        <v>3152505.25</v>
+        <v>2937790.25</v>
       </c>
       <c r="K16">
-        <v>2937790.25</v>
+        <v>2931267.037239566</v>
       </c>
       <c r="L16">
-        <v>2931267.037239566</v>
+        <v>2844134.447498387</v>
       </c>
       <c r="M16">
-        <v>2844134.447498387</v>
+        <v>2880851.357619047</v>
       </c>
       <c r="N16">
-        <v>2880851.357619047</v>
+        <v>2862347.75</v>
       </c>
       <c r="O16">
-        <v>2862347.75</v>
+        <v>1864228.125</v>
       </c>
       <c r="P16">
-        <v>1864228.125</v>
+        <v>9367581</v>
       </c>
       <c r="Q16">
-        <v>9367581</v>
+        <v>110150976</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1734,31 +1734,31 @@
         <v>3039840.5</v>
       </c>
       <c r="I17">
-        <v>3152569.25</v>
+        <v>3152504.5</v>
       </c>
       <c r="J17">
-        <v>3152504.5</v>
+        <v>2921767.75</v>
       </c>
       <c r="K17">
-        <v>2921767.75</v>
+        <v>3144327.086296409</v>
       </c>
       <c r="L17">
-        <v>3144327.086296409</v>
+        <v>2962143.919997941</v>
       </c>
       <c r="M17">
-        <v>2962143.919997941</v>
+        <v>2973403.516166667</v>
       </c>
       <c r="N17">
-        <v>2973403.516166667</v>
+        <v>2928666.25</v>
       </c>
       <c r="O17">
-        <v>2928666.25</v>
+        <v>1764958.125</v>
       </c>
       <c r="P17">
-        <v>1764958.125</v>
+        <v>-2558830.5</v>
       </c>
       <c r="Q17">
-        <v>-2558830.5</v>
+        <v>108524640</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1787,31 +1787,31 @@
         <v>3180951.75</v>
       </c>
       <c r="I18">
-        <v>3152569.25</v>
+        <v>3152505.75</v>
       </c>
       <c r="J18">
-        <v>3152505.75</v>
+        <v>3065045.5</v>
       </c>
       <c r="K18">
-        <v>3065045.5</v>
+        <v>3183805.557498336</v>
       </c>
       <c r="L18">
-        <v>3183805.557498336</v>
+        <v>3173222.295174504</v>
       </c>
       <c r="M18">
-        <v>3173222.295174504</v>
+        <v>3163673.268246393</v>
       </c>
       <c r="N18">
-        <v>3163673.268246393</v>
+        <v>3178981.75</v>
       </c>
       <c r="O18">
-        <v>3178981.75</v>
+        <v>1647075.125</v>
       </c>
       <c r="P18">
-        <v>1647075.125</v>
+        <v>-3740749.25</v>
       </c>
       <c r="Q18">
-        <v>-3740749.25</v>
+        <v>106898320</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1840,31 +1840,31 @@
         <v>2846737.75</v>
       </c>
       <c r="I19">
-        <v>3152569.75</v>
+        <v>3152504.25</v>
       </c>
       <c r="J19">
-        <v>3152504.25</v>
+        <v>2913751.75</v>
       </c>
       <c r="K19">
-        <v>2913751.75</v>
+        <v>3181139.798802751</v>
       </c>
       <c r="L19">
-        <v>3181139.798802751</v>
+        <v>3162482.083569347</v>
       </c>
       <c r="M19">
-        <v>3162482.083569347</v>
+        <v>3149964.007</v>
       </c>
       <c r="N19">
-        <v>3149964.007</v>
+        <v>3173879</v>
       </c>
       <c r="O19">
-        <v>3173879</v>
+        <v>1475093.5</v>
       </c>
       <c r="P19">
-        <v>1475093.5</v>
+        <v>1188960.75</v>
       </c>
       <c r="Q19">
-        <v>1188960.75</v>
+        <v>105271984</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1893,31 +1893,31 @@
         <v>3101098.75</v>
       </c>
       <c r="I20">
-        <v>3152572</v>
+        <v>3152504.25</v>
       </c>
       <c r="J20">
-        <v>3152504.25</v>
+        <v>3116996</v>
       </c>
       <c r="K20">
-        <v>3116996</v>
+        <v>3175931.173398636</v>
       </c>
       <c r="L20">
-        <v>3175931.173398636</v>
+        <v>3070615.40801684</v>
       </c>
       <c r="M20">
-        <v>3070615.40801684</v>
+        <v>3095912.5285</v>
       </c>
       <c r="N20">
-        <v>3095912.5285</v>
+        <v>3078906.5</v>
       </c>
       <c r="O20">
-        <v>3078906.5</v>
+        <v>1660089.625</v>
       </c>
       <c r="P20">
-        <v>1660089.625</v>
+        <v>7557280.5</v>
       </c>
       <c r="Q20">
-        <v>7557280.5</v>
+        <v>103645648</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1946,31 +1946,31 @@
         <v>3117392.75</v>
       </c>
       <c r="I21">
-        <v>3152573.75</v>
+        <v>3152503.5</v>
       </c>
       <c r="J21">
-        <v>3152503.5</v>
+        <v>3060277.5</v>
       </c>
       <c r="K21">
-        <v>3060277.5</v>
+        <v>3045828.441343881</v>
       </c>
       <c r="L21">
-        <v>3045828.441343881</v>
+        <v>3038521.340885951</v>
       </c>
       <c r="M21">
-        <v>3038521.340885951</v>
+        <v>3034036.207563492</v>
       </c>
       <c r="N21">
-        <v>3034036.207563492</v>
+        <v>3036068</v>
       </c>
       <c r="O21">
-        <v>3036068</v>
+        <v>1021819.6875</v>
       </c>
       <c r="P21">
-        <v>1021819.6875</v>
+        <v>34157576</v>
       </c>
       <c r="Q21">
-        <v>34157576</v>
+        <v>106083456</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1999,31 +1999,31 @@
         <v>3087475.25</v>
       </c>
       <c r="I22">
-        <v>3152574</v>
+        <v>3152506.25</v>
       </c>
       <c r="J22">
-        <v>3152506.25</v>
+        <v>3073241</v>
       </c>
       <c r="K22">
-        <v>3073241</v>
+        <v>3028175.424221204</v>
       </c>
       <c r="L22">
-        <v>3028175.424221204</v>
+        <v>3081610.127252227</v>
       </c>
       <c r="M22">
-        <v>3081610.127252227</v>
+        <v>3053199.238115081</v>
       </c>
       <c r="N22">
-        <v>3053199.238115081</v>
+        <v>3080256.25</v>
       </c>
       <c r="O22">
-        <v>3080256.25</v>
+        <v>2776739.75</v>
       </c>
       <c r="P22">
-        <v>2776739.75</v>
+        <v>-8384226</v>
       </c>
       <c r="Q22">
-        <v>-8384226</v>
+        <v>108792208</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2052,31 +2052,31 @@
         <v>2866580.5</v>
       </c>
       <c r="I23">
-        <v>3152574.25</v>
+        <v>3152505.75</v>
       </c>
       <c r="J23">
-        <v>3152505.75</v>
+        <v>2885790</v>
       </c>
       <c r="K23">
-        <v>2885790</v>
+        <v>3174340.915427745</v>
       </c>
       <c r="L23">
-        <v>3174340.915427745</v>
+        <v>2926258.861272521</v>
       </c>
       <c r="M23">
-        <v>2926258.861272521</v>
+        <v>2962192.515642858</v>
       </c>
       <c r="N23">
-        <v>2962192.515642858</v>
+        <v>2904348.75</v>
       </c>
       <c r="O23">
-        <v>2904348.75</v>
+        <v>1745138.875</v>
       </c>
       <c r="P23">
-        <v>1745138.875</v>
+        <v>20047352</v>
       </c>
       <c r="Q23">
-        <v>20047352</v>
+        <v>111500960</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2105,31 +2105,31 @@
         <v>2578434</v>
       </c>
       <c r="I24">
-        <v>3152576.5</v>
+        <v>3152505.25</v>
       </c>
       <c r="J24">
-        <v>3152505.25</v>
+        <v>2656169.5</v>
       </c>
       <c r="K24">
-        <v>2656169.5</v>
+        <v>2956167.579492387</v>
       </c>
       <c r="L24">
-        <v>2956167.579492387</v>
+        <v>2592751.570520413</v>
       </c>
       <c r="M24">
-        <v>2592751.570520413</v>
+        <v>2772963.62104762</v>
       </c>
       <c r="N24">
-        <v>2772963.62104762</v>
+        <v>2568852</v>
       </c>
       <c r="O24">
-        <v>2568852</v>
+        <v>1965849.875</v>
       </c>
       <c r="P24">
-        <v>1965849.875</v>
+        <v>14935515</v>
       </c>
       <c r="Q24">
-        <v>14935515</v>
+        <v>114209712</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2158,31 +2158,31 @@
         <v>2692782.25</v>
       </c>
       <c r="I25">
-        <v>3152578.75</v>
+        <v>3152505.5</v>
       </c>
       <c r="J25">
-        <v>3152505.5</v>
+        <v>2837897</v>
       </c>
       <c r="K25">
-        <v>2837897</v>
+        <v>3415105.214362752</v>
       </c>
       <c r="L25">
-        <v>3415105.214362752</v>
+        <v>3733914.79963611</v>
       </c>
       <c r="M25">
-        <v>3733914.79963611</v>
+        <v>3690216.450666666</v>
       </c>
       <c r="N25">
-        <v>3690216.450666666</v>
+        <v>3744437</v>
       </c>
       <c r="O25">
-        <v>3744437</v>
+        <v>2999298.75</v>
       </c>
       <c r="P25">
-        <v>2999298.75</v>
+        <v>43609472</v>
       </c>
       <c r="Q25">
-        <v>43609472</v>
+        <v>114724656</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2211,31 +2211,31 @@
         <v>2854586.75</v>
       </c>
       <c r="I26">
-        <v>3152575.75</v>
+        <v>3152505.25</v>
       </c>
       <c r="J26">
-        <v>3152505.25</v>
+        <v>2919249.75</v>
       </c>
       <c r="K26">
-        <v>2919249.75</v>
+        <v>3107160.520950276</v>
       </c>
       <c r="L26">
-        <v>3107160.520950276</v>
+        <v>3251232.711214602</v>
       </c>
       <c r="M26">
-        <v>3251232.711214602</v>
+        <v>3222848.978432539</v>
       </c>
       <c r="N26">
-        <v>3222848.978432539</v>
+        <v>3251039.5</v>
       </c>
       <c r="O26">
-        <v>3251039.5</v>
+        <v>2433135.5</v>
       </c>
       <c r="P26">
-        <v>2433135.5</v>
+        <v>30191742</v>
       </c>
       <c r="Q26">
-        <v>30191742</v>
+        <v>114733344</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2264,31 +2264,31 @@
         <v>3097529</v>
       </c>
       <c r="I27">
-        <v>3152571.75</v>
+        <v>3152505.5</v>
       </c>
       <c r="J27">
-        <v>3152505.5</v>
+        <v>3003520.5</v>
       </c>
       <c r="K27">
-        <v>3003520.5</v>
+        <v>3415105.214362752</v>
       </c>
       <c r="L27">
-        <v>3415105.214362752</v>
+        <v>3695588.499842188</v>
       </c>
       <c r="M27">
-        <v>3695588.499842188</v>
+        <v>3675044.955000001</v>
       </c>
       <c r="N27">
-        <v>3675044.955000001</v>
+        <v>3745085.5</v>
       </c>
       <c r="O27">
-        <v>3745085.5</v>
+        <v>3129182</v>
       </c>
       <c r="P27">
-        <v>3129182</v>
+        <v>9551012</v>
       </c>
       <c r="Q27">
-        <v>9551012</v>
+        <v>114742048</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2317,31 +2317,31 @@
         <v>2688094</v>
       </c>
       <c r="I28">
-        <v>3152570</v>
+        <v>3152505</v>
       </c>
       <c r="J28">
-        <v>3152505</v>
+        <v>2811249.25</v>
       </c>
       <c r="K28">
-        <v>2811249.25</v>
+        <v>2964375.27690461</v>
       </c>
       <c r="L28">
-        <v>2964375.27690461</v>
+        <v>2843418.233498034</v>
       </c>
       <c r="M28">
-        <v>2843418.233498034</v>
+        <v>2826964.281904762</v>
       </c>
       <c r="N28">
-        <v>2826964.281904762</v>
+        <v>2723026.75</v>
       </c>
       <c r="O28">
-        <v>2723026.75</v>
+        <v>1959059.125</v>
       </c>
       <c r="P28">
-        <v>1959059.125</v>
+        <v>-9201879</v>
       </c>
       <c r="Q28">
-        <v>-9201879</v>
+        <v>114750736</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2370,31 +2370,31 @@
         <v>3146182.5</v>
       </c>
       <c r="I29">
-        <v>3152569.5</v>
+        <v>3152505.25</v>
       </c>
       <c r="J29">
-        <v>3152505.25</v>
+        <v>2946728.75</v>
       </c>
       <c r="K29">
-        <v>2946728.75</v>
+        <v>3144327.086296409</v>
       </c>
       <c r="L29">
-        <v>3144327.086296409</v>
+        <v>2962143.919997941</v>
       </c>
       <c r="M29">
-        <v>2962143.919997941</v>
+        <v>2973403.516166667</v>
       </c>
       <c r="N29">
-        <v>2973403.516166667</v>
+        <v>2928666.25</v>
       </c>
       <c r="O29">
-        <v>2928666.25</v>
+        <v>2575035</v>
       </c>
       <c r="P29">
-        <v>2575035</v>
+        <v>-15676979</v>
       </c>
       <c r="Q29">
-        <v>-15676979</v>
+        <v>113378864</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2423,31 +2423,31 @@
         <v>2938642.25</v>
       </c>
       <c r="I30">
-        <v>3152568.5</v>
+        <v>3152505.5</v>
       </c>
       <c r="J30">
-        <v>3152505.5</v>
+        <v>2906150.25</v>
       </c>
       <c r="K30">
-        <v>2906150.25</v>
+        <v>3089986.50194906</v>
       </c>
       <c r="L30">
-        <v>3089986.50194906</v>
+        <v>3119984.14003212</v>
       </c>
       <c r="M30">
-        <v>3119984.14003212</v>
+        <v>3123754.39174459</v>
       </c>
       <c r="N30">
-        <v>3123754.39174459</v>
+        <v>3111612.75</v>
       </c>
       <c r="O30">
-        <v>3111612.75</v>
+        <v>2798417.5</v>
       </c>
       <c r="P30">
-        <v>2798417.5</v>
+        <v>-9709959</v>
       </c>
       <c r="Q30">
-        <v>-9709959</v>
+        <v>111379488</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2476,31 +2476,31 @@
         <v>2606315.25</v>
       </c>
       <c r="I31">
-        <v>3152566.75</v>
+        <v>3152506</v>
       </c>
       <c r="J31">
-        <v>3152506</v>
+        <v>2619548.75</v>
       </c>
       <c r="K31">
-        <v>2619548.75</v>
+        <v>3107160.520950276</v>
       </c>
       <c r="L31">
-        <v>3107160.520950276</v>
+        <v>3251232.711214602</v>
       </c>
       <c r="M31">
-        <v>3251232.711214602</v>
+        <v>3222848.978432539</v>
       </c>
       <c r="N31">
-        <v>3222848.978432539</v>
+        <v>3251039.5</v>
       </c>
       <c r="O31">
-        <v>3251039.5</v>
+        <v>2192415.25</v>
       </c>
       <c r="P31">
-        <v>2192415.25</v>
+        <v>177773504</v>
       </c>
       <c r="Q31">
-        <v>177773504</v>
+        <v>109380080</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2529,31 +2529,31 @@
         <v>3124526.5</v>
       </c>
       <c r="I32">
-        <v>3152567.75</v>
+        <v>3152505.5</v>
       </c>
       <c r="J32">
-        <v>3152505.5</v>
+        <v>3005371.5</v>
       </c>
       <c r="K32">
-        <v>3005371.5</v>
+        <v>3174340.915427745</v>
       </c>
       <c r="L32">
-        <v>3174340.915427745</v>
+        <v>2926258.861272521</v>
       </c>
       <c r="M32">
-        <v>2926258.861272521</v>
+        <v>2962192.515642858</v>
       </c>
       <c r="N32">
-        <v>2962192.515642858</v>
+        <v>2904348.75</v>
       </c>
       <c r="O32">
-        <v>2904348.75</v>
+        <v>2939235.5</v>
       </c>
       <c r="P32">
-        <v>2939235.5</v>
+        <v>289711104</v>
       </c>
       <c r="Q32">
-        <v>289711104</v>
+        <v>107380704</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2582,31 +2582,31 @@
         <v>2905329.75</v>
       </c>
       <c r="I33">
-        <v>3152570.5</v>
+        <v>3152505.75</v>
       </c>
       <c r="J33">
-        <v>3152505.75</v>
+        <v>2905323.5</v>
       </c>
       <c r="K33">
-        <v>2905323.5</v>
+        <v>3045828.441343881</v>
       </c>
       <c r="L33">
-        <v>3045828.441343881</v>
+        <v>3038521.340885951</v>
       </c>
       <c r="M33">
-        <v>3038521.340885951</v>
+        <v>3034036.207563492</v>
       </c>
       <c r="N33">
-        <v>3034036.207563492</v>
+        <v>3036068</v>
       </c>
       <c r="O33">
-        <v>3036068</v>
+        <v>2405180.25</v>
       </c>
       <c r="P33">
-        <v>2405180.25</v>
+        <v>653034112</v>
       </c>
       <c r="Q33">
-        <v>653034112</v>
+        <v>106505968</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2635,31 +2635,31 @@
         <v>2925047</v>
       </c>
       <c r="I34">
-        <v>3152571.5</v>
+        <v>3152505.5</v>
       </c>
       <c r="J34">
-        <v>3152505.5</v>
+        <v>2934237.75</v>
       </c>
       <c r="K34">
-        <v>2934237.75</v>
+        <v>3029765.682192095</v>
       </c>
       <c r="L34">
-        <v>3029765.682192095</v>
+        <v>3121161.024127041</v>
       </c>
       <c r="M34">
-        <v>3121161.024127041</v>
+        <v>3107651.991000002</v>
       </c>
       <c r="N34">
-        <v>3107651.991000002</v>
+        <v>3126357.25</v>
       </c>
       <c r="O34">
-        <v>3126357.25</v>
+        <v>1744085.75</v>
       </c>
       <c r="P34">
-        <v>1744085.75</v>
+        <v>886212608</v>
       </c>
       <c r="Q34">
-        <v>886212608</v>
+        <v>106505968</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>284328517298.6232</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>250919606841.6752</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>287930012568.9104</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>304560499795.7747</v>
@@ -2882,163 +2882,163 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>247200233642.4037</v>
+        <v>247191118298.0104</v>
       </c>
       <c r="C9">
-        <v>497192.3507480819</v>
+        <v>497183.183844758</v>
       </c>
       <c r="D9">
-        <v>0.03036077980052907</v>
+        <v>0.03035843295388742</v>
       </c>
       <c r="E9">
-        <v>282767.3125</v>
+        <v>282744.1875</v>
       </c>
       <c r="F9">
-        <v>0.1235351948199645</v>
+        <v>0.1235229855822491</v>
       </c>
       <c r="G9">
-        <v>132180.3125</v>
+        <v>132137.4375</v>
       </c>
       <c r="H9">
-        <v>0.08037678208830412</v>
+        <v>0.08035270824880229</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>235573727944.4596</v>
+        <v>247200233642.4037</v>
       </c>
       <c r="C10">
-        <v>485359.3801962208</v>
+        <v>497192.3507480819</v>
       </c>
       <c r="D10">
-        <v>0.02948790183882105</v>
+        <v>0.03036077980052907</v>
       </c>
       <c r="E10">
-        <v>263301.4479166667</v>
+        <v>282767.3125</v>
       </c>
       <c r="F10">
-        <v>0.1179077213551934</v>
+        <v>0.1235351948199645</v>
       </c>
       <c r="G10">
-        <v>159181.5625</v>
+        <v>132180.3125</v>
       </c>
       <c r="H10">
-        <v>0.09647854846309115</v>
+        <v>0.08037678208830412</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>227758239770.112</v>
+        <v>235573727944.4596</v>
       </c>
       <c r="C11">
-        <v>477240.2327655454</v>
+        <v>485359.3801962208</v>
       </c>
       <c r="D11">
-        <v>0.03031947305248245</v>
+        <v>0.02948790183882105</v>
       </c>
       <c r="E11">
-        <v>283957.9791666667</v>
+        <v>263301.4479166667</v>
       </c>
       <c r="F11">
-        <v>0.1304904156155903</v>
+        <v>0.1179077213551934</v>
       </c>
       <c r="G11">
-        <v>176889.625</v>
+        <v>159181.5625</v>
       </c>
       <c r="H11">
-        <v>0.09890301713662286</v>
+        <v>0.09647854846309115</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>271896059414.8438</v>
+        <v>227758239770.112</v>
       </c>
       <c r="C12">
-        <v>521436.5344074423</v>
+        <v>477240.2327655454</v>
       </c>
       <c r="D12">
-        <v>0.03393246849998413</v>
+        <v>0.03031947305248245</v>
       </c>
       <c r="E12">
-        <v>305115.6666666667</v>
+        <v>283957.9791666667</v>
       </c>
       <c r="F12">
-        <v>0.138730658354323</v>
+        <v>0.1304904156155903</v>
       </c>
       <c r="G12">
-        <v>187589.625</v>
+        <v>176889.625</v>
       </c>
       <c r="H12">
-        <v>0.1109230699845279</v>
+        <v>0.09890301713662286</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>340350954880.9089</v>
+        <v>271896059414.8438</v>
       </c>
       <c r="C13">
-        <v>583396.0531927765</v>
+        <v>521436.5344074423</v>
       </c>
       <c r="D13">
-        <v>0.05495339977800109</v>
+        <v>0.03393246849998413</v>
       </c>
       <c r="E13">
-        <v>380602.5</v>
+        <v>305115.6666666667</v>
       </c>
       <c r="F13">
-        <v>0.1824259752627141</v>
+        <v>0.138730658354323</v>
       </c>
       <c r="G13">
-        <v>268285.375</v>
+        <v>187589.625</v>
       </c>
       <c r="H13">
-        <v>0.1512063908398456</v>
+        <v>0.1109230699845279</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>5543599974413.823</v>
+        <v>340350954880.9089</v>
       </c>
       <c r="C14">
-        <v>2354485.076277576</v>
+        <v>583396.0531927765</v>
       </c>
       <c r="D14">
-        <v>1.532357181020304</v>
+        <v>0.05495339977800109</v>
       </c>
       <c r="E14">
-        <v>1813953.7421875</v>
+        <v>380602.5</v>
       </c>
       <c r="F14">
-        <v>0.9538479353728747</v>
+        <v>0.1824259752627141</v>
       </c>
       <c r="G14">
-        <v>1050075.515625</v>
+        <v>268285.375</v>
       </c>
       <c r="H14">
-        <v>0.6609506899129558</v>
+        <v>0.1512063908398456</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>24991704200347.85</v>
@@ -3095,37 +3095,37 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3160,22 +3160,22 @@
         <v>1653210.875</v>
       </c>
       <c r="K2">
+        <v>1633391</v>
+      </c>
+      <c r="L2">
         <v>1633390.25</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1810532.625</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1872948.875</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1776310.75</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1685541.375</v>
-      </c>
-      <c r="P2">
-        <v>331986.4375</v>
       </c>
       <c r="Q2">
         <v>-3990894.25</v>
@@ -3213,22 +3213,22 @@
         <v>1387114.875</v>
       </c>
       <c r="K3">
+        <v>1633390.25</v>
+      </c>
+      <c r="L3">
         <v>1633387.375</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1642856.625</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1698813.75</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1526072.75</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1514727.75</v>
-      </c>
-      <c r="P3">
-        <v>311990.1875</v>
       </c>
       <c r="Q3">
         <v>7087157.5</v>
@@ -3266,22 +3266,22 @@
         <v>1553440.5</v>
       </c>
       <c r="K4">
+        <v>1633388.375</v>
+      </c>
+      <c r="L4">
         <v>1633386.25</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1723972.25</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1722995.75</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1560452.25</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1606778.5</v>
-      </c>
-      <c r="P4">
-        <v>657841.8125</v>
       </c>
       <c r="Q4">
         <v>1726950.25</v>
@@ -3319,22 +3319,22 @@
         <v>1653210.875</v>
       </c>
       <c r="K5">
+        <v>1633408.25</v>
+      </c>
+      <c r="L5">
         <v>1633387.375</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1667612.875</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1549190.125</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1557225</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1583096.5</v>
-      </c>
-      <c r="P5">
-        <v>1115548.25</v>
       </c>
       <c r="Q5">
         <v>-5136206</v>
@@ -3372,22 +3372,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K6">
+        <v>1633459.5</v>
+      </c>
+      <c r="L6">
         <v>1633392.125</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1343121.875</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1377264</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1341667.5</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1196168.5</v>
-      </c>
-      <c r="P6">
-        <v>2286313.25</v>
       </c>
       <c r="Q6">
         <v>5281730</v>
@@ -3425,22 +3425,22 @@
         <v>1577891.75</v>
       </c>
       <c r="K7">
+        <v>1633492</v>
+      </c>
+      <c r="L7">
         <v>1633395.125</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1534460.5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1516351.625</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1503820.875</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1454096.25</v>
-      </c>
-      <c r="P7">
-        <v>1589802.625</v>
       </c>
       <c r="Q7">
         <v>-6364974.5</v>
@@ -3478,22 +3478,22 @@
         <v>1553440.5</v>
       </c>
       <c r="K8">
+        <v>1633490.125</v>
+      </c>
+      <c r="L8">
         <v>1633392.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1695649.75</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1732192.25</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1632644.5</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1563117</v>
-      </c>
-      <c r="P8">
-        <v>-1649258.5</v>
       </c>
       <c r="Q8">
         <v>3927755.75</v>
@@ -3531,22 +3531,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K9">
+        <v>1633475.5</v>
+      </c>
+      <c r="L9">
         <v>1633388.5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1634705</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1638269.375</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1597364.375</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1835396.75</v>
-      </c>
-      <c r="P9">
-        <v>-3474106.5</v>
       </c>
       <c r="Q9">
         <v>2617964</v>
@@ -3584,22 +3584,22 @@
         <v>1857816.5</v>
       </c>
       <c r="K10">
+        <v>1633429.5</v>
+      </c>
+      <c r="L10">
         <v>1633389</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1979464</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1819399.75</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1846375.25</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2106206.75</v>
-      </c>
-      <c r="P10">
-        <v>-1389192</v>
       </c>
       <c r="Q10">
         <v>-499877</v>
@@ -3637,22 +3637,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K11">
+        <v>1633393.375</v>
+      </c>
+      <c r="L11">
         <v>1633392.125</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1312642.875</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1272403.875</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1314055.25</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1171230.625</v>
-      </c>
-      <c r="P11">
-        <v>432794.15625</v>
       </c>
       <c r="Q11">
         <v>4189152</v>
@@ -3690,22 +3690,22 @@
         <v>1436690.5</v>
       </c>
       <c r="K12">
+        <v>1633392.625</v>
+      </c>
+      <c r="L12">
         <v>1633389.375</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1291359.75</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1252588</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1324070.375</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1101196.25</v>
-      </c>
-      <c r="P12">
-        <v>712771</v>
       </c>
       <c r="Q12">
         <v>9721570</v>
@@ -3743,22 +3743,22 @@
         <v>1922049.5</v>
       </c>
       <c r="K13">
+        <v>1633392.25</v>
+      </c>
+      <c r="L13">
         <v>1633391.5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1685113</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1701590.125</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1749125.125</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1274726.75</v>
-      </c>
-      <c r="P13">
-        <v>1229762.875</v>
       </c>
       <c r="Q13">
         <v>-4281804</v>
@@ -3796,22 +3796,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K14">
+        <v>1633392.75</v>
+      </c>
+      <c r="L14">
         <v>1633392</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1442944</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1467052.375</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1532692.375</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1522086.125</v>
-      </c>
-      <c r="P14">
-        <v>2220257</v>
       </c>
       <c r="Q14">
         <v>-310602.90625</v>
@@ -3849,22 +3849,22 @@
         <v>1780658.75</v>
       </c>
       <c r="K15">
+        <v>1633393.25</v>
+      </c>
+      <c r="L15">
         <v>1633391.625</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1570619</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1514104.125</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1573275.125</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1086287</v>
-      </c>
-      <c r="P15">
-        <v>3126669.25</v>
       </c>
       <c r="Q15">
         <v>-8601642</v>
@@ -3902,22 +3902,22 @@
         <v>1653210.875</v>
       </c>
       <c r="K16">
+        <v>1633392.25</v>
+      </c>
+      <c r="L16">
         <v>1633391.25</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1561645.875</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1566990.125</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1566209.5</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1012327.0625</v>
-      </c>
-      <c r="P16">
-        <v>2214080</v>
       </c>
       <c r="Q16">
         <v>10379327</v>
@@ -3955,22 +3955,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K17">
+        <v>1633391.375</v>
+      </c>
+      <c r="L17">
         <v>1633390.375</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1368784.375</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1374171.75</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1371630.5</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>840863.125</v>
-      </c>
-      <c r="P17">
-        <v>929101.75</v>
       </c>
       <c r="Q17">
         <v>3348536.5</v>
@@ -4008,22 +4008,22 @@
         <v>1653210.875</v>
       </c>
       <c r="K18">
+        <v>1633391.375</v>
+      </c>
+      <c r="L18">
         <v>1633391.25</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1520833.25</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1487363.375</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1555046.375</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>668142.9375</v>
-      </c>
-      <c r="P18">
-        <v>-345633.65625</v>
       </c>
       <c r="Q18">
         <v>948352</v>
@@ -4061,22 +4061,22 @@
         <v>1553440.5</v>
       </c>
       <c r="K19">
+        <v>1633391.375</v>
+      </c>
+      <c r="L19">
         <v>1633390.875</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1525527.5</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1440073.625</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1522809</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>746149.6875</v>
-      </c>
-      <c r="P19">
-        <v>-1923089.5</v>
       </c>
       <c r="Q19">
         <v>12844779</v>
@@ -4114,22 +4114,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K20">
+        <v>1633391.25</v>
+      </c>
+      <c r="L20">
         <v>1633389.75</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1300224.625</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1422304.5</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1440577.5</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>745651.5625</v>
-      </c>
-      <c r="P20">
-        <v>-354858.65625</v>
       </c>
       <c r="Q20">
         <v>2495737</v>
@@ -4167,22 +4167,22 @@
         <v>1653210.875</v>
       </c>
       <c r="K21">
+        <v>1633391.25</v>
+      </c>
+      <c r="L21">
         <v>1633389.75</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1583103.25</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1700761</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1583598.5</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>627048.6875</v>
-      </c>
-      <c r="P21">
-        <v>1211394.375</v>
       </c>
       <c r="Q21">
         <v>5748605.5</v>
@@ -4220,22 +4220,22 @@
         <v>1553440.5</v>
       </c>
       <c r="K22">
+        <v>1633392.25</v>
+      </c>
+      <c r="L22">
         <v>1633390.5</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1645375.25</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1611432.75</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1607070</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1335748.125</v>
-      </c>
-      <c r="P22">
-        <v>1486589.125</v>
       </c>
       <c r="Q22">
         <v>-193887.296875</v>
@@ -4273,22 +4273,22 @@
         <v>1553440.5</v>
       </c>
       <c r="K23">
+        <v>1633393</v>
+      </c>
+      <c r="L23">
         <v>1633391.625</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1549221.75</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1384855.875</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1354094</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>863683.75</v>
-      </c>
-      <c r="P23">
-        <v>1451004.5</v>
       </c>
       <c r="Q23">
         <v>-5351912</v>
@@ -4326,22 +4326,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K24">
+        <v>1633392.625</v>
+      </c>
+      <c r="L24">
         <v>1633391.25</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1322096.125</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1327462.25</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1280517.25</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1175359.875</v>
-      </c>
-      <c r="P24">
-        <v>1985460.625</v>
       </c>
       <c r="Q24">
         <v>9855827</v>
@@ -4379,22 +4379,22 @@
         <v>1816392.375</v>
       </c>
       <c r="K25">
+        <v>1633392</v>
+      </c>
+      <c r="L25">
         <v>1633391.5</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1523041.375</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1555415.125</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1539310</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1388728.75</v>
-      </c>
-      <c r="P25">
-        <v>2190163.5</v>
       </c>
       <c r="Q25">
         <v>27504596</v>
@@ -4432,22 +4432,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K26">
+        <v>1633390.875</v>
+      </c>
+      <c r="L26">
         <v>1633391.25</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1430566</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1517424.5</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1444070.5</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1238241.375</v>
-      </c>
-      <c r="P26">
-        <v>2501195.5</v>
       </c>
       <c r="Q26">
         <v>30019794</v>
@@ -4485,22 +4485,22 @@
         <v>1653210.875</v>
       </c>
       <c r="K27">
+        <v>1633389.75</v>
+      </c>
+      <c r="L27">
         <v>1633391.375</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1611730.25</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1608320.375</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1594073.125</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1644050.125</v>
-      </c>
-      <c r="P27">
-        <v>2487467</v>
       </c>
       <c r="Q27">
         <v>72737120</v>
@@ -4538,22 +4538,22 @@
         <v>1780658.75</v>
       </c>
       <c r="K28">
+        <v>1633426.625</v>
+      </c>
+      <c r="L28">
         <v>1633391</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1574691</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1548703.75</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1575094.5</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>976554.125</v>
-      </c>
-      <c r="P28">
-        <v>35086.5</v>
       </c>
       <c r="Q28">
         <v>87770776</v>
@@ -4591,22 +4591,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K29">
+        <v>1633478.5</v>
+      </c>
+      <c r="L29">
         <v>1633391.125</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1481366.75</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1492102.75</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1435283.5</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1381577.125</v>
-      </c>
-      <c r="P29">
-        <v>-3186155.5</v>
       </c>
       <c r="Q29">
         <v>86477120</v>
@@ -4644,22 +4644,22 @@
         <v>1922049.5</v>
       </c>
       <c r="K30">
+        <v>1633462.75</v>
+      </c>
+      <c r="L30">
         <v>1633391.25</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1675115.875</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1676266.25</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1702122.5</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1563135.375</v>
-      </c>
-      <c r="P30">
-        <v>-2185905</v>
       </c>
       <c r="Q30">
         <v>71421224</v>
@@ -4697,22 +4697,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K31">
+        <v>1633411.875</v>
+      </c>
+      <c r="L31">
         <v>1633391.75</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1270009.625</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1254630.625</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1275352.875</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>908946.3125</v>
-      </c>
-      <c r="P31">
-        <v>754516</v>
       </c>
       <c r="Q31">
         <v>174183840</v>
@@ -4750,22 +4750,22 @@
         <v>1668129.5</v>
       </c>
       <c r="K32">
+        <v>1633420</v>
+      </c>
+      <c r="L32">
         <v>1633391.25</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1458031.125</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1499164.625</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1495205.75</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1383482.5</v>
-      </c>
-      <c r="P32">
-        <v>753553.6875</v>
       </c>
       <c r="Q32">
         <v>228195552</v>
@@ -4803,22 +4803,22 @@
         <v>1653210.875</v>
       </c>
       <c r="K33">
+        <v>1633468.5</v>
+      </c>
+      <c r="L33">
         <v>1633391.5</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1756844.875</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1744002.75</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1706004.125</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>1218729.125</v>
-      </c>
-      <c r="P33">
-        <v>-1231652.875</v>
       </c>
       <c r="Q33">
         <v>253962512</v>
@@ -4856,22 +4856,22 @@
         <v>1483997.25</v>
       </c>
       <c r="K34">
+        <v>1633491.25</v>
+      </c>
+      <c r="L34">
         <v>1633391.375</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1582011.625</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1459951.5</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1440243.75</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>957974.875</v>
-      </c>
-      <c r="P34">
-        <v>-2383938</v>
       </c>
       <c r="Q34">
         <v>562086848</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>364569127222.8802</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>400153095102.4644</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>393624569157.7643</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>397114910947.2956</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>401979556085.6574</v>
@@ -5175,59 +5175,59 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>544529800277.8958</v>
+        <v>540516142265.2344</v>
       </c>
       <c r="C12">
-        <v>737922.6248583897</v>
+        <v>735198.029285467</v>
       </c>
       <c r="D12">
-        <v>0.05280731827074327</v>
+        <v>0.0749448899106101</v>
       </c>
       <c r="E12">
-        <v>379580.3125</v>
+        <v>483692.5</v>
       </c>
       <c r="F12">
-        <v>0.1612910644383096</v>
+        <v>0.2253983336703822</v>
       </c>
       <c r="G12">
-        <v>219048</v>
+        <v>384984.75</v>
       </c>
       <c r="H12">
-        <v>0.13978425686228</v>
+        <v>0.2347817593228689</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>540516142265.2344</v>
+        <v>482612172248.3958</v>
       </c>
       <c r="C13">
-        <v>735198.029285467</v>
+        <v>694702.9381313971</v>
       </c>
       <c r="D13">
-        <v>0.0749448899106101</v>
+        <v>0.140953273932249</v>
       </c>
       <c r="E13">
-        <v>483692.5</v>
+        <v>535822.5625</v>
       </c>
       <c r="F13">
-        <v>0.2253983336703822</v>
+        <v>0.2909140637333437</v>
       </c>
       <c r="G13">
-        <v>384984.75</v>
+        <v>335568.3125</v>
       </c>
       <c r="H13">
-        <v>0.2347817593228689</v>
+        <v>0.1994096464897049</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>61788033290473.66</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>8887454112059011</v>
@@ -5301,19 +5301,19 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
@@ -5325,22 +5325,22 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5384,10 +5384,10 @@
         <v>1310229.875</v>
       </c>
       <c r="N2">
-        <v>1251043.625</v>
+        <v>1575083.375</v>
       </c>
       <c r="O2">
-        <v>1575083.375</v>
+        <v>2383940</v>
       </c>
       <c r="P2">
         <v>15293461</v>
@@ -5437,10 +5437,10 @@
         <v>1509774.75</v>
       </c>
       <c r="N3">
-        <v>1251048.125</v>
+        <v>1504796.125</v>
       </c>
       <c r="O3">
-        <v>1504796.125</v>
+        <v>2213917.5</v>
       </c>
       <c r="P3">
         <v>9082177</v>
@@ -5490,10 +5490,10 @@
         <v>1378072.875</v>
       </c>
       <c r="N4">
-        <v>1281595.625</v>
+        <v>1404782.25</v>
       </c>
       <c r="O4">
-        <v>1404782.25</v>
+        <v>1760110.875</v>
       </c>
       <c r="P4">
         <v>12946664</v>
@@ -5543,10 +5543,10 @@
         <v>1412151.875</v>
       </c>
       <c r="N5">
-        <v>1351420.375</v>
+        <v>1419519.5</v>
       </c>
       <c r="O5">
-        <v>1419519.5</v>
+        <v>1434444.875</v>
       </c>
       <c r="P5">
         <v>-1371941.5</v>
@@ -5596,10 +5596,10 @@
         <v>1605486.625</v>
       </c>
       <c r="N6">
-        <v>1421244.375</v>
+        <v>1380327.875</v>
       </c>
       <c r="O6">
-        <v>1380327.875</v>
+        <v>1172302.125</v>
       </c>
       <c r="P6">
         <v>5026757.5</v>
@@ -5649,10 +5649,10 @@
         <v>1345127.625</v>
       </c>
       <c r="N7">
-        <v>1491072.625</v>
+        <v>1071674.5</v>
       </c>
       <c r="O7">
-        <v>1071674.5</v>
+        <v>1231421</v>
       </c>
       <c r="P7">
         <v>3419108.25</v>
@@ -5702,10 +5702,10 @@
         <v>1696989.375</v>
       </c>
       <c r="N8">
-        <v>1560397</v>
+        <v>1397771</v>
       </c>
       <c r="O8">
-        <v>1397771</v>
+        <v>1478175.375</v>
       </c>
       <c r="P8">
         <v>2363527.25</v>
@@ -5755,10 +5755,10 @@
         <v>1527252.125</v>
       </c>
       <c r="N9">
-        <v>1628620.125</v>
+        <v>1732088.75</v>
       </c>
       <c r="O9">
-        <v>1732088.75</v>
+        <v>1625959</v>
       </c>
       <c r="P9">
         <v>6608576</v>
@@ -5808,10 +5808,10 @@
         <v>1459337.625</v>
       </c>
       <c r="N10">
-        <v>1696840.75</v>
+        <v>1707009</v>
       </c>
       <c r="O10">
-        <v>1707009</v>
+        <v>1365956.75</v>
       </c>
       <c r="P10">
         <v>5301029</v>
@@ -5861,10 +5861,10 @@
         <v>1702015.875</v>
       </c>
       <c r="N11">
-        <v>1765065</v>
+        <v>1250486.875</v>
       </c>
       <c r="O11">
-        <v>1250486.875</v>
+        <v>1389012</v>
       </c>
       <c r="P11">
         <v>-9722884</v>
@@ -5914,10 +5914,10 @@
         <v>1510336.125</v>
       </c>
       <c r="N12">
-        <v>1804896.375</v>
+        <v>1171651</v>
       </c>
       <c r="O12">
-        <v>1171651</v>
+        <v>2146234</v>
       </c>
       <c r="P12">
         <v>14690363</v>
@@ -5967,10 +5967,10 @@
         <v>1261125.5</v>
       </c>
       <c r="N13">
-        <v>1721731.25</v>
+        <v>1116055.5</v>
       </c>
       <c r="O13">
-        <v>1116055.5</v>
+        <v>2759635.5</v>
       </c>
       <c r="P13">
         <v>7437751.5</v>
@@ -6020,10 +6020,10 @@
         <v>1541492.125</v>
       </c>
       <c r="N14">
-        <v>1638566.5</v>
+        <v>1243974.375</v>
       </c>
       <c r="O14">
-        <v>1243974.375</v>
+        <v>1970588.875</v>
       </c>
       <c r="P14">
         <v>16527379</v>
@@ -6073,10 +6073,10 @@
         <v>1576750</v>
       </c>
       <c r="N15">
-        <v>1555396.875</v>
+        <v>1085094</v>
       </c>
       <c r="O15">
-        <v>1085094</v>
+        <v>1167170.75</v>
       </c>
       <c r="P15">
         <v>205027.515625</v>
@@ -6126,10 +6126,10 @@
         <v>1336539.125</v>
       </c>
       <c r="N16">
-        <v>1475615.75</v>
+        <v>980263.0625</v>
       </c>
       <c r="O16">
-        <v>980263.0625</v>
+        <v>962435.4375</v>
       </c>
       <c r="P16">
         <v>9928529</v>
@@ -6179,10 +6179,10 @@
         <v>1641193</v>
       </c>
       <c r="N17">
-        <v>1446518.5</v>
+        <v>1051196.5</v>
       </c>
       <c r="O17">
-        <v>1051196.5</v>
+        <v>687161.5</v>
       </c>
       <c r="P17">
         <v>10185617</v>
@@ -6232,10 +6232,10 @@
         <v>1535619.25</v>
       </c>
       <c r="N18">
-        <v>1417382.125</v>
+        <v>892654.4375</v>
       </c>
       <c r="O18">
-        <v>892654.4375</v>
+        <v>1061205.625</v>
       </c>
       <c r="P18">
         <v>-4351012</v>
@@ -6285,10 +6285,10 @@
         <v>1522459.875</v>
       </c>
       <c r="N19">
-        <v>1388256.625</v>
+        <v>871919.625</v>
       </c>
       <c r="O19">
-        <v>871919.625</v>
+        <v>1473049.625</v>
       </c>
       <c r="P19">
         <v>3659847.25</v>
@@ -6338,10 +6338,10 @@
         <v>1730338.875</v>
       </c>
       <c r="N20">
-        <v>1359132.375</v>
+        <v>854393</v>
       </c>
       <c r="O20">
-        <v>854393</v>
+        <v>1747433</v>
       </c>
       <c r="P20">
         <v>3232072</v>
@@ -6391,10 +6391,10 @@
         <v>1439710.125</v>
       </c>
       <c r="N21">
-        <v>1508060.75</v>
+        <v>556519.1875</v>
       </c>
       <c r="O21">
-        <v>556519.1875</v>
+        <v>2054743.125</v>
       </c>
       <c r="P21">
         <v>8596320</v>
@@ -6444,10 +6444,10 @@
         <v>1520919.5</v>
       </c>
       <c r="N22">
-        <v>1668861.375</v>
+        <v>1336936.375</v>
       </c>
       <c r="O22">
-        <v>1336936.375</v>
+        <v>1723835.5</v>
       </c>
       <c r="P22">
         <v>-3550176.5</v>
@@ -6497,10 +6497,10 @@
         <v>1570840.25</v>
       </c>
       <c r="N23">
-        <v>1829658.125</v>
+        <v>958947.375</v>
       </c>
       <c r="O23">
-        <v>958947.375</v>
+        <v>1282912</v>
       </c>
       <c r="P23">
         <v>2632624.25</v>
@@ -6550,10 +6550,10 @@
         <v>1248537</v>
       </c>
       <c r="N24">
-        <v>1990455.25</v>
+        <v>901143.1875</v>
       </c>
       <c r="O24">
-        <v>901143.1875</v>
+        <v>1548237.5</v>
       </c>
       <c r="P24">
         <v>1677979.625</v>
@@ -6603,10 +6603,10 @@
         <v>1441777.625</v>
       </c>
       <c r="N25">
-        <v>1859417.25</v>
+        <v>1531727.25</v>
       </c>
       <c r="O25">
-        <v>1531727.25</v>
+        <v>2120306.5</v>
       </c>
       <c r="P25">
         <v>22908874</v>
@@ -6656,10 +6656,10 @@
         <v>1415214.75</v>
       </c>
       <c r="N26">
-        <v>1661021.25</v>
+        <v>1173178.75</v>
       </c>
       <c r="O26">
-        <v>1173178.75</v>
+        <v>2177519.5</v>
       </c>
       <c r="P26">
         <v>56430204</v>
@@ -6709,10 +6709,10 @@
         <v>1431621.5</v>
       </c>
       <c r="N27">
-        <v>1462620.5</v>
+        <v>1614120</v>
       </c>
       <c r="O27">
-        <v>1614120</v>
+        <v>2180051.5</v>
       </c>
       <c r="P27">
         <v>54097484</v>
@@ -6762,10 +6762,10 @@
         <v>1368776</v>
       </c>
       <c r="N28">
-        <v>1264217.875</v>
+        <v>1115957</v>
       </c>
       <c r="O28">
-        <v>1115957</v>
+        <v>9726269</v>
       </c>
       <c r="P28">
         <v>42709128</v>
@@ -6815,10 +6815,10 @@
         <v>1608152</v>
       </c>
       <c r="N29">
-        <v>1239880.875</v>
+        <v>1159392</v>
       </c>
       <c r="O29">
-        <v>1159392</v>
+        <v>20214856</v>
       </c>
       <c r="P29">
         <v>82174832</v>
@@ -6868,10 +6868,10 @@
         <v>1280568.25</v>
       </c>
       <c r="N30">
-        <v>1294657.625</v>
+        <v>1342543.375</v>
       </c>
       <c r="O30">
-        <v>1342543.375</v>
+        <v>23622322</v>
       </c>
       <c r="P30">
         <v>87658120</v>
@@ -6921,10 +6921,10 @@
         <v>1512714.5</v>
       </c>
       <c r="N31">
-        <v>1349434</v>
+        <v>1174583.125</v>
       </c>
       <c r="O31">
-        <v>1174583.125</v>
+        <v>23375644</v>
       </c>
       <c r="P31">
         <v>129366952</v>
@@ -6974,10 +6974,10 @@
         <v>1490703.875</v>
       </c>
       <c r="N32">
-        <v>1404203.125</v>
+        <v>1383379.75</v>
       </c>
       <c r="O32">
-        <v>1383379.75</v>
+        <v>23452094</v>
       </c>
       <c r="P32">
         <v>142557232</v>
@@ -7027,10 +7027,10 @@
         <v>1323343.625</v>
       </c>
       <c r="N33">
-        <v>1428169.375</v>
+        <v>1100130.5</v>
       </c>
       <c r="O33">
-        <v>1100130.5</v>
+        <v>23754140</v>
       </c>
       <c r="P33">
         <v>148238752</v>
@@ -7080,10 +7080,10 @@
         <v>1611915.125</v>
       </c>
       <c r="N34">
-        <v>1428211.875</v>
+        <v>770656.3125</v>
       </c>
       <c r="O34">
-        <v>770656.3125</v>
+        <v>23899872</v>
       </c>
       <c r="P34">
         <v>251126880</v>
